--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -39985,7 +39985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40048,7 +40048,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01377</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="14.75" customHeight="1" s="49">
@@ -40093,9 +40096,12 @@
         <v>0.03655</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>18.66308</v>
+        <v>0.03793</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>19.36451</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40109,10 +40115,13 @@
         <v>0.00945</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.82321</v>
+        <v>0.01656</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>6.97637</v>
+        <v>8.45374</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.85284</v>
       </c>
     </row>
     <row r="8" ht="14.75" customHeight="1" s="49">
@@ -40176,6 +40185,9 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
